--- a/outputs-r202/g__Succiniclasticum.xlsx
+++ b/outputs-r202/g__Succiniclasticum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -545,6 +550,11 @@
           <t>s__Succiniclasticum sp900315925</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>s__Succiniclasticum sp900315925</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -590,6 +600,11 @@
           <t>s__Succiniclasticum sp900315345</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>s__Succiniclasticum sp900315345</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -635,6 +650,11 @@
           <t>s__Succiniclasticum sp900315925</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>s__Succiniclasticum sp900315925</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -680,6 +700,11 @@
           <t>s__Succiniclasticum sp900315925</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>s__Succiniclasticum sp900315925</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -725,6 +750,11 @@
           <t>s__Succiniclasticum sp900315925</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>s__Succiniclasticum sp900315925</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -766,6 +796,11 @@
         <v>0.999630528615793</v>
       </c>
       <c r="M7" t="inlineStr">
+        <is>
+          <t>s__Succiniclasticum sp900315925</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>s__Succiniclasticum sp900315925</t>
         </is>

--- a/outputs-r202/g__Succiniclasticum.xlsx
+++ b/outputs-r202/g__Succiniclasticum.xlsx
@@ -513,37 +513,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.22042409039484e-14</v>
+        <v>2.220428002471348e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>2.22042409039484e-14</v>
+        <v>2.220428002471348e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>2.22042409039484e-14</v>
+        <v>2.220428002471348e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>2.22042409039484e-14</v>
+        <v>2.220428002471348e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>2.22042409039484e-14</v>
+        <v>2.220428002471348e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>2.22042409039484e-14</v>
+        <v>2.220428002471348e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999010774838095</v>
+        <v>0.9999187052022991</v>
       </c>
       <c r="I2" t="n">
-        <v>2.22042409039484e-14</v>
+        <v>2.220428002471348e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>2.22042409039484e-14</v>
+        <v>2.220428002471348e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>9.892251601282164e-05</v>
+        <v>8.12947975232317e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9999010774838095</v>
+        <v>0.9999187052022991</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -563,37 +563,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.220442789202938e-14</v>
+        <v>2.22044537476612e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>2.220442789202938e-14</v>
+        <v>2.22044537476612e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.220442789202938e-14</v>
+        <v>2.22044537476612e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>2.220442789202938e-14</v>
+        <v>2.22044537476612e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999853174214679</v>
+        <v>0.9999969623664227</v>
       </c>
       <c r="G3" t="n">
-        <v>2.220442789202938e-14</v>
+        <v>2.22044537476612e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.220442789202938e-14</v>
+        <v>2.22044537476612e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>2.220442789202938e-14</v>
+        <v>2.22044537476612e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>2.220442789202938e-14</v>
+        <v>2.22044537476612e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>1.468257835433118e-05</v>
+        <v>3.037633399700312e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9999853174214679</v>
+        <v>0.9999969623664227</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -613,37 +613,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.220438122903929e-14</v>
+        <v>2.220388791222418e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220438122903929e-14</v>
+        <v>2.220388791222418e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220438122903929e-14</v>
+        <v>2.220388791222418e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220438122903929e-14</v>
+        <v>2.220388791222418e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>2.220438122903929e-14</v>
+        <v>2.220388791222418e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>2.220438122903929e-14</v>
+        <v>2.220388791222418e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9999642991814995</v>
+        <v>0.9997419379741522</v>
       </c>
       <c r="I4" t="n">
-        <v>2.220438122903929e-14</v>
+        <v>2.220388791222418e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>2.220438122903929e-14</v>
+        <v>2.220388791222418e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>3.570081832271544e-05</v>
+        <v>0.0002580620256702069</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9999642991814995</v>
+        <v>0.9997419379741522</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -663,37 +663,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03806708930369791</v>
+        <v>2.220432958841867e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220017337704353e-14</v>
+        <v>2.220432958841867e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.220017337704353e-14</v>
+        <v>2.220432958841867e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>2.220017337704353e-14</v>
+        <v>2.220432958841867e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>2.220017337704353e-14</v>
+        <v>2.220432958841867e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.220017337704353e-14</v>
+        <v>2.220432958841867e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9619328415630587</v>
+        <v>0.9999410358720322</v>
       </c>
       <c r="I5" t="n">
-        <v>2.220017337704353e-14</v>
+        <v>2.220432958841867e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>2.220017337704353e-14</v>
+        <v>2.220432958841867e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>6.913308802521068e-08</v>
+        <v>5.896412779012714e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9619328415630587</v>
+        <v>0.9999410358720322</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -713,37 +713,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.219984307700551e-14</v>
+        <v>2.219987862816256e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>2.219984307700551e-14</v>
+        <v>2.219987862816256e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.219984307700551e-14</v>
+        <v>2.219987862816256e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>2.219984307700551e-14</v>
+        <v>2.219987862816256e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>2.219984307700551e-14</v>
+        <v>2.219987862816256e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>2.219984307700551e-14</v>
+        <v>2.219987862816256e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9932322280013151</v>
+        <v>0.9891559681730945</v>
       </c>
       <c r="I6" t="n">
-        <v>2.219984307700551e-14</v>
+        <v>2.219987862816256e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>2.219984307700551e-14</v>
+        <v>2.219987862816256e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>0.006767771998507447</v>
+        <v>0.01084403182672793</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9932322280013151</v>
+        <v>0.9891559681730945</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -763,37 +763,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.22036409878247e-14</v>
+        <v>2.220408878204401e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>2.22036409878247e-14</v>
+        <v>2.220408878204401e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>2.22036409878247e-14</v>
+        <v>2.220408878204401e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>2.22036409878247e-14</v>
+        <v>2.220408878204401e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>2.22036409878247e-14</v>
+        <v>2.220408878204401e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>2.22036409878247e-14</v>
+        <v>2.220408878204401e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>0.999630528615793</v>
+        <v>0.9998325144413805</v>
       </c>
       <c r="I7" t="n">
-        <v>2.22036409878247e-14</v>
+        <v>2.220408878204401e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>2.22036409878247e-14</v>
+        <v>2.220408878204401e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0003694713840292835</v>
+        <v>0.0001674855584419205</v>
       </c>
       <c r="L7" t="n">
-        <v>0.999630528615793</v>
+        <v>0.9998325144413805</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
